--- a/sheets/Coding Decoded Trie SDE Sheet.xlsx
+++ b/sheets/Coding Decoded Trie SDE Sheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Desktop\old_sheets\sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F00846C-0D40-4896-BC4A-139EE9457031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="130" yWindow="550" windowWidth="18880" windowHeight="6740"/>
+    <workbookView xWindow="2120" yWindow="2120" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,8 +106,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -135,14 +141,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -236,7 +234,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -249,7 +247,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -257,11 +254,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -272,18 +269,19 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -294,6 +292,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -496,14 +497,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -524,163 +525,163 @@
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="21" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="E4" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="E5" r:id="rId6"/>
-    <hyperlink ref="B6" r:id="rId7"/>
-    <hyperlink ref="E6" r:id="rId8"/>
-    <hyperlink ref="B7" r:id="rId9"/>
-    <hyperlink ref="E7" r:id="rId10"/>
-    <hyperlink ref="B9" r:id="rId11"/>
-    <hyperlink ref="E9" r:id="rId12"/>
-    <hyperlink ref="B10" r:id="rId13"/>
-    <hyperlink ref="E10" r:id="rId14"/>
-    <hyperlink ref="B11" r:id="rId15"/>
-    <hyperlink ref="E11" r:id="rId16"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E10" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B11" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E11" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
